--- a/Approximationen/Speicher Kosten.xlsx
+++ b/Approximationen/Speicher Kosten.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <xr:revisionPtr revIDLastSave="6" documentId="6_{E4898710-30BB-4C00-8D0F-71ABAA2C5C87}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{C073A6FB-1554-4E22-B375-F8CDB99674A8}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="120" yWindow="105" windowWidth="15120" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,6 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
